--- a/Fase2_ML_Schedulling_Optimization/RESUMEN Costes_promedio Set_Validacion.xlsx
+++ b/Fase2_ML_Schedulling_Optimization/RESUMEN Costes_promedio Set_Validacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\PYTHON files\INESDI\TFM\Fase2_ML_Scheduling_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F17E3-1AA0-4A86-9130-0913C2FDD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A14DFBD-6EB8-4FF9-8B05-7B4490D6418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
